--- a/data/trans_orig/P14A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1916E09-6268-4BC4-AC0F-D7F47DB5C23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11EA216F-6203-4191-BCA5-79B266A22B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C58A31B4-8D84-4F51-BFC9-AED566D19A24}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CED6191F-9986-4D9D-9F45-6472F0FB1AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
   <si>
     <t>Población que recibe medicación o terapia por hipertensión en 2012 (Tasa respuesta: 18,63%)</t>
   </si>
@@ -102,37 +102,37 @@
     <t>87,58%</t>
   </si>
   <si>
-    <t>44,91%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>51,05%</t>
+    <t>50,97%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>63,35%</t>
+    <t>68,81%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>55,09%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>48,95%</t>
+    <t>49,03%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>36,65%</t>
+    <t>31,19%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -141,37 +141,37 @@
     <t>96,91%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>85,34%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>82,84%</t>
+    <t>81,5%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>88,36%</t>
+    <t>89,52%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>14,66%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>17,16%</t>
+    <t>18,5%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>11,64%</t>
+    <t>10,48%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -180,19 +180,19 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>90,89%</t>
+    <t>89,5%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>91,08%</t>
+    <t>90,74%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>93,61%</t>
+    <t>93,88%</t>
   </si>
   <si>
     <t>99,35%</t>
@@ -201,13 +201,13 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>10,5%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>8,92%</t>
+    <t>9,26%</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -216,7 +216,7 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>6,39%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -240,7 +240,7 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>96,75%</t>
+    <t>96,97%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -249,16 +249,16 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>97,59%</t>
+    <t>97,56%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -270,16 +270,16 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -288,55 +288,55 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -375,13 +375,13 @@
     <t>93,97%</t>
   </si>
   <si>
-    <t>70,39%</t>
+    <t>69,42%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>86,67%</t>
+    <t>87,42%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -390,211 +390,205 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>29,61%</t>
+    <t>30,58%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>12,58%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>93,81%</t>
+    <t>95,26%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>87,26%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>3,35%</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC01131-FC8D-40C4-A165-8CFE38276CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDDE506-46E6-4644-A133-350ED198CEE4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA19549-F846-496C-8AE6-F5706B34B536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892D80DD-2CCB-46EF-B02B-9FEF1ECF49B3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,13 +2987,13 @@
         <v>262560</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3008,13 @@
         <v>2281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3029,13 +3023,13 @@
         <v>3387</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3044,13 +3038,13 @@
         <v>5668</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3112,13 @@
         <v>271147</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>326</v>
@@ -3133,13 +3127,13 @@
         <v>392547</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>617</v>
@@ -3148,13 +3142,13 @@
         <v>663694</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3163,13 @@
         <v>3547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3184,13 +3178,13 @@
         <v>11385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3199,13 +3193,13 @@
         <v>14932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3267,13 @@
         <v>505929</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>523</v>
@@ -3288,13 +3282,13 @@
         <v>610570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>1023</v>
@@ -3303,13 +3297,13 @@
         <v>1116499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3318,13 @@
         <v>8245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -3339,13 +3333,13 @@
         <v>18833</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -3354,13 +3348,13 @@
         <v>27078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11EA216F-6203-4191-BCA5-79B266A22B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A234947-CC4C-46E9-B553-CDE659F98B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CED6191F-9986-4D9D-9F45-6472F0FB1AC6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EE6CC6B-4235-4AFD-B94A-222C8FCEE44A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,37 +102,37 @@
     <t>87,58%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>35,13%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>50,97%</t>
+    <t>48,98%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>68,81%</t>
+    <t>66,07%</t>
   </si>
   <si>
     <t>12,42%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>64,87%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>49,03%</t>
+    <t>51,02%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>31,19%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -141,37 +141,37 @@
     <t>96,91%</t>
   </si>
   <si>
-    <t>85,34%</t>
+    <t>82,11%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>81,5%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>89,52%</t>
+    <t>89,66%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>14,66%</t>
+    <t>17,89%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>18,5%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>10,48%</t>
+    <t>10,34%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -180,19 +180,19 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>89,5%</t>
+    <t>90,58%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>90,74%</t>
+    <t>91,88%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>93,88%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>99,35%</t>
@@ -201,13 +201,13 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>10,5%</t>
+    <t>9,42%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>9,26%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -216,7 +216,7 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>6,12%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -240,7 +240,7 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>96,97%</t>
+    <t>96,68%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -249,16 +249,16 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>97,56%</t>
+    <t>97,47%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -270,16 +270,16 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,03%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -288,13 +288,13 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>97,49%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -303,292 +303,292 @@
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,61%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipertensión en 2016 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>3,47%</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDDE506-46E6-4644-A133-350ED198CEE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC75BC2-AF45-4927-AE8B-202B39687909}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2069,7 +2069,7 @@
         <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>1195</v>
@@ -2078,13 +2078,13 @@
         <v>1299999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2099,13 @@
         <v>7311</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2114,13 +2114,13 @@
         <v>10267</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -2129,13 +2129,13 @@
         <v>17578</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,7 +2191,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892D80DD-2CCB-46EF-B02B-9FEF1ECF49B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639ABDCE-0AF3-4A29-B76A-799B48C0F729}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2230,7 +2230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2367,7 +2367,7 @@
         <v>902</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>16</v>
@@ -2418,7 +2418,7 @@
         <v>1403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2510,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2525,7 +2525,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2549,7 +2549,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2662,10 +2662,10 @@
         <v>15294</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2677,10 +2677,10 @@
         <v>38481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2704,7 +2704,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2713,13 +2713,13 @@
         <v>981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2728,13 +2728,13 @@
         <v>981</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,10 +2802,10 @@
         <v>86257</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2817,13 +2817,13 @@
         <v>55566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -2832,13 +2832,13 @@
         <v>141823</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2853,13 @@
         <v>1014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2868,10 +2868,10 @@
         <v>3080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>132</v>
@@ -2978,7 +2978,7 @@
         <v>139</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>232</v>
@@ -2987,7 +2987,7 @@
         <v>262560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>141</v>
@@ -3026,10 +3026,10 @@
         <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3038,7 +3038,7 @@
         <v>5668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>148</v>
@@ -3148,7 +3148,7 @@
         <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3163,13 @@
         <v>3547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -3178,13 +3178,13 @@
         <v>11385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3193,13 +3193,13 @@
         <v>14932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3267,13 @@
         <v>505929</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7">
         <v>523</v>
@@ -3282,13 +3282,13 @@
         <v>610570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>1023</v>
@@ -3297,13 +3297,13 @@
         <v>1116499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3318,13 @@
         <v>8245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
